--- a/plans/将棋盤のレイアウト模索.xlsx
+++ b/plans/将棋盤のレイアウト模索.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\kifuwarabe-wcsc35-kifuuuuuuwarabe-beginning\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E4A7C-DBC5-4CA0-9E0E-AA5F781D909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743486F2-9BD1-4004-9BC7-BF0029C2997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22950" yWindow="10410" windowWidth="21705" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1630" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Ver2" sheetId="2" r:id="rId1"/>
+    <sheet name="Ver1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Next</t>
     <phoneticPr fontId="1"/>
@@ -136,12 +137,72 @@
     <t>９</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Original 3x4 board was invented by Madoka Kitao. The original pieces were designed by Maiko Fujita.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +224,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +310,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -471,106 +634,723 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="2" tint="-0.89996032593768116"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,6 +1370,2711 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40214B75-C622-4621-935F-8083CDAE15C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="4165600"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98421DF-12C2-42BE-99C6-89910650822B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584681" y="4178281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C558FC-97F1-4A56-B4C1-4CE346639969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727681" y="3803631"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19031</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4372BD14-079E-449B-BF92-ABB72101A8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543031" y="1130281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19031</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C64038C-FE35-4E16-B470-2C0E4477A6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591031" y="1136631"/>
+          <a:ext cx="371494" cy="371494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31731</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4840CF-A782-4BD3-9959-1ED095212546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412731" y="1511281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38081</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368DAA5F-DAA4-4CC2-9760-76D1EC4081BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943081" y="4178300"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A506F52C-3A55-4E98-B85F-D8614B5089AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203681" y="4178281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB452DD-2389-46BE-BE08-C6905280EF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727681" y="3416281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158788</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC1961-B633-4F4D-AD95-B0184B3EC25D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892319" y="1130281"/>
+          <a:ext cx="361969" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AB2D3-E377-4CE9-8570-4A33F10907F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203681" y="1130281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31731</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252BEDCC-92E5-4E77-B5EE-4C6966CBD77D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412731" y="1917700"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37395BAC-21C6-4BF5-8BA4-A40E56F99956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298681" y="4165600"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46084636-3B99-451F-997C-38CF6A5D5489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="4197331"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7F0AEB-C04F-4EF2-B769-ECFA2FC9D02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727681" y="3035281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3459EC-60F1-4D6C-955C-93E8F9B9FD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298681" y="1117600"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0433C738-BCF2-438D-A2D3-2D70C065443F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822681" y="1130281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38081</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F105035-1978-4749-B1DE-9B4922371455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419081" y="2286019"/>
+          <a:ext cx="368319" cy="361969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87765C79-DD44-43B2-AA9C-50272B4A2A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679681" y="4178281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD6197A-B1BA-4A49-B2DA-F0B9B64E7846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441681" y="4178281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF81517-B0F5-4C0E-AA81-F14104F06241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727681" y="2654281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F808987-C3DF-461A-B160-242FB6F85FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679681" y="1130281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9A28D5-5669-4570-A36D-7E973676D676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441681" y="1130281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38081</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3511A9CC-585A-478B-BBA8-5202DB236407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419081" y="2667038"/>
+          <a:ext cx="368319" cy="361969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7192BBEA-8CDE-4E69-B827-A5A85BFD7DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060681" y="4178281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6331</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5994E8-B8E7-4CC1-B57E-E6871BE20B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3054331" y="1123931"/>
+          <a:ext cx="361969" cy="361969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B482A9FB-CBB1-44A8-A6CE-1FA86410E783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="3797281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93C4A38-4F00-4E5E-B666-F3B8AEAA7B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727681" y="2273281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E56FA06-9C13-4415-80FD-3AADCD65A7DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203681" y="1511281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38081</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF44A26-0547-4AC2-9D41-C4F79D3047D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419081" y="3035357"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA9D43D-29D4-46E0-9E28-3C24E090D479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3784600"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177819</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180285A5-2FAA-4F7A-85F9-901FF3B3E711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1930381"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC30EF32-A55E-4EFA-9727-A3655C373D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1917681" y="1509944"/>
+          <a:ext cx="368319" cy="369656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38081</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA49CF24-03CF-42F9-AB80-D3740204BFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419081" y="3416281"/>
+          <a:ext cx="368319" cy="368319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F774E392-4F2C-08AE-B5F1-E48D688A6D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559C75DF-EAB9-4D07-B16E-70BB7B1C1513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0795CD-E257-40F9-8171-7AA1A72B888D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C3C282-78C7-4170-8A8F-EFF5F812A3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04059129-08F9-463F-ACC4-79AA32AF4BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937E5130-EF6B-45A3-81AB-BF78865541BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4FCF21-22D5-48FC-8CE5-8BAA232AC65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54A7CA-9167-483B-A6A5-19EF19342D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF074B27-710A-49AA-A109-3F3B2233B59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47AD491-F819-57F8-3EC0-8D3ABE544C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA04EC2E-5778-421C-8142-0790C64ED459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA759FD-4531-407C-BB2C-EE626B83E2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F23D81-922E-466F-88A1-4A126FA91381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AD7491-BB81-4173-AE1D-E586F1E86E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C115BC-E78B-4947-B70C-C46DEAC3F598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E14F823-E8B6-406D-A5B7-996777E8FBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4644DCB8-9CFA-44E2-8257-58574D89C5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1E532F-7DC2-4387-94F1-EF884E5A3481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5583DF-613D-4F4D-91C2-2BE8E648938C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461FDF8B-6062-4586-AF59-78BCEAC1B726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3578,10 +7063,1403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6507516-9E1B-45D7-89CB-128857834274}">
+  <dimension ref="A1:AJ104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="94" width="2.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32">
+        <v>512</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="9">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="35">
+        <v>90</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35">
+        <v>80</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35">
+        <v>70</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35">
+        <v>50</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35">
+        <v>40</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35">
+        <v>30</v>
+      </c>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39">
+        <v>10</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="150"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="144"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50">
+        <v>3</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="150"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="46">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39">
+        <v>2</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="150"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="46">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50">
+        <v>4</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="152"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="69">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="152"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="69">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50">
+        <v>1</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="152"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="69">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="73">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="154"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="83">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="154"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="83">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="73">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="83">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="57">
+        <v>10</v>
+      </c>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+    </row>
+    <row r="26" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+    </row>
+    <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="AB22:AC23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="V20:W21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="Z20:AA21"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V18:W19"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="V16:W17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="Z16:AA17"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="X18:Y19"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AE14:AF15"/>
+    <mergeCell ref="AG14:AH15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="X10:Y11"/>
+    <mergeCell ref="Z10:AA11"/>
+    <mergeCell ref="AB10:AC11"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="AB6:AC7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="AB8:AC9"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="V4:W5"/>
+    <mergeCell ref="X4:Y5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:J6"/>
     </sheetView>
   </sheetViews>
@@ -3591,750 +8469,750 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15">
+      <c r="D2" s="111"/>
+      <c r="E2" s="112">
         <v>512</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
       <c r="Q2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="32"/>
-      <c r="I5" s="33" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="33" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="33" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="33" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="33" t="s">
+      <c r="P5" s="88"/>
+      <c r="Q5" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="33" t="s">
+      <c r="R5" s="88"/>
+      <c r="S5" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="33" t="s">
+      <c r="T5" s="88"/>
+      <c r="U5" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="33" t="s">
+      <c r="V5" s="88"/>
+      <c r="W5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="33" t="s">
+      <c r="X5" s="88"/>
+      <c r="Y5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="3:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="88">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="4" t="s">
+      <c r="F7" s="88"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="32"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="32"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="88">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="4" t="s">
+      <c r="F9" s="88"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="32"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="32"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="88">
         <v>2</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="4" t="s">
+      <c r="F11" s="88"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="32"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="4">
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="2"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="88">
         <v>1</v>
       </c>
-      <c r="AH11" s="4"/>
+      <c r="AH11" s="88"/>
     </row>
     <row r="12" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="32"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="2"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
     </row>
     <row r="13" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4">
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="88">
         <v>4</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="4" t="s">
+      <c r="F13" s="88"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="32"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="4">
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="2"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="88">
         <v>1</v>
       </c>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="88"/>
     </row>
     <row r="14" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="32"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="2"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
     </row>
     <row r="15" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4">
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="88">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="4" t="s">
+      <c r="F15" s="88"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="32"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="4">
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="2"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="88">
         <v>1</v>
       </c>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="88"/>
     </row>
     <row r="16" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="32"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="2"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
     </row>
     <row r="17" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4">
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="88">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="4" t="s">
+      <c r="F17" s="88"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="32"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="4">
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="2"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="88">
         <v>4</v>
       </c>
-      <c r="AH17" s="4"/>
+      <c r="AH17" s="88"/>
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="32"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="2"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
     </row>
     <row r="19" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4">
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="88">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="4" t="s">
+      <c r="F19" s="88"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="32"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="4">
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="2"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="88">
         <v>2</v>
       </c>
-      <c r="AH19" s="4"/>
+      <c r="AH19" s="88"/>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="32"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="2"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="4" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="32"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="4">
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="2"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="88">
         <v>3</v>
       </c>
-      <c r="AH21" s="4"/>
+      <c r="AH21" s="88"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="32"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="32"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="2"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="32"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="4" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="32"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="4">
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="2"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="88">
         <v>10</v>
       </c>
-      <c r="AH23" s="4"/>
+      <c r="AH23" s="88"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="32"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="32"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="2"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -4421,91 +9299,30 @@
     <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="E11:F12"/>
     <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="O19:P20"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="AG15:AH16"/>
-    <mergeCell ref="Y23:Z24"/>
-    <mergeCell ref="AE23:AF24"/>
-    <mergeCell ref="AG23:AH24"/>
-    <mergeCell ref="AE21:AF22"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="AE19:AF20"/>
-    <mergeCell ref="AG19:AH20"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA23:AB24"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -4530,29 +9347,90 @@
     <mergeCell ref="AE17:AF18"/>
     <mergeCell ref="AG17:AH18"/>
     <mergeCell ref="AE15:AF16"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="AG15:AH16"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="AE23:AF24"/>
+    <mergeCell ref="AG23:AH24"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AH20"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="K5:L6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plans/将棋盤のレイアウト模索.xlsx
+++ b/plans/将棋盤のレイアウト模索.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\kifuwarabe-wcsc35-kifuuuuuuwarabe-beginning\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743486F2-9BD1-4004-9BC7-BF0029C2997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A07636-7ED3-4A9E-BCC6-B70FB004E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1630" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="630" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ver2" sheetId="2" r:id="rId1"/>
@@ -971,6 +971,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1004,52 +1010,91 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1070,30 +1115,57 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,42 +1178,90 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,126 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,21 +1375,471 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="図 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A48A6AF-29D1-8008-CBE8-D256D42BC03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="図 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F38FB37-8BAB-4CD5-B849-0213431F82B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="図 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D39950-39B0-4C08-9E28-FFBD7ACFA1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="図 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9CA09B-C8B2-4419-B90D-90D7CF733397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="図 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7303B0-7A96-4B22-B33D-E34F49D113D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="図 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DEF918-ECD6-4622-AF55-4FF1A423C940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="図 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A535A-B04D-45C4-9A5E-E0DE7EAA9C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="図 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A2A06E-B0C3-4ECE-BC70-2DEC9A6A899C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="図 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F48915-0CA0-4C72-9A53-39A4DC5C84BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40214B75-C622-4621-935F-8083CDAE15C6}"/>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="図 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19C0082-F3B6-4F38-AD60-291B28F41C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,108 +1861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="4165600"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98421DF-12C2-42BE-99C6-89910650822B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4584681" y="4178281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C558FC-97F1-4A56-B4C1-4CE346639969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727681" y="3803631"/>
-          <a:ext cx="368319" cy="368319"/>
+          <a:off x="5715000" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,22 +1874,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19031</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4372BD14-079E-449B-BF92-ABB72101A8C4}"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="図 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F700B1-2D3B-5DF4-1AF2-775CB3FABB77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,1556 +1899,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543031" y="1130281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19031</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C64038C-FE35-4E16-B470-2C0E4477A6AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591031" y="1136631"/>
-          <a:ext cx="371494" cy="371494"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31731</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4840CF-A782-4BD3-9959-1ED095212546}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412731" y="1511281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38081</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368DAA5F-DAA4-4CC2-9760-76D1EC4081BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943081" y="4178300"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A506F52C-3A55-4E98-B85F-D8614B5089AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4203681" y="4178281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB452DD-2389-46BE-BE08-C6905280EF3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727681" y="3416281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>158788</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC1961-B633-4F4D-AD95-B0184B3EC25D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1892319" y="1130281"/>
-          <a:ext cx="361969" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1AB2D3-E377-4CE9-8570-4A33F10907F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4203681" y="1130281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31731</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25419</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252BEDCC-92E5-4E77-B5EE-4C6966CBD77D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412731" y="1917700"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37395BAC-21C6-4BF5-8BA4-A40E56F99956}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2298681" y="4165600"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31731</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46084636-3B99-451F-997C-38CF6A5D5489}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810000" y="4197331"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7F0AEB-C04F-4EF2-B769-ECFA2FC9D02C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727681" y="3035281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3459EC-60F1-4D6C-955C-93E8F9B9FD24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2298681" y="1117600"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0433C738-BCF2-438D-A2D3-2D70C065443F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3822681" y="1130281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38081</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6388</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F105035-1978-4749-B1DE-9B4922371455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419081" y="2286019"/>
-          <a:ext cx="368319" cy="361969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87765C79-DD44-43B2-AA9C-50272B4A2A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2679681" y="4178281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD6197A-B1BA-4A49-B2DA-F0B9B64E7846}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3441681" y="4178281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF81517-B0F5-4C0E-AA81-F14104F06241}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727681" y="2654281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F808987-C3DF-461A-B160-242FB6F85FEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2679681" y="1130281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9A28D5-5669-4570-A36D-7E973676D676}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3441681" y="1130281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38081</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3511A9CC-585A-478B-BBA8-5202DB236407}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419081" y="2667038"/>
-          <a:ext cx="368319" cy="361969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7192BBEA-8CDE-4E69-B827-A5A85BFD7DEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3060681" y="4178281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6331</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5994E8-B8E7-4CC1-B57E-E6871BE20B20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3054331" y="1123931"/>
-          <a:ext cx="361969" cy="361969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B482A9FB-CBB1-44A8-A6CE-1FA86410E783}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="3797281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93C4A38-4F00-4E5E-B666-F3B8AEAA7B48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727681" y="2273281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E56FA06-9C13-4415-80FD-3AADCD65A7DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4203681" y="1511281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38081</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF44A26-0547-4AC2-9D41-C4F79D3047D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419081" y="3035357"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA9D43D-29D4-46E0-9E28-3C24E090D479}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="3784600"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>177819</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180285A5-2FAA-4F7A-85F9-901FF3B3E711}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="1930381"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12681</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC30EF32-A55E-4EFA-9727-A3655C373D66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1917681" y="1509944"/>
-          <a:ext cx="368319" cy="369656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38081</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA49CF24-03CF-42F9-AB80-D3740204BFE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419081" y="3416281"/>
-          <a:ext cx="368319" cy="368319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F774E392-4F2C-08AE-B5F1-E48D688A6D97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3136,19 +1936,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559C75DF-EAB9-4D07-B16E-70BB7B1C1513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="214" name="図 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BF3AFC-9692-4CB7-BF0E-8FD1E55AF3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3186,19 +1986,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0795CD-E257-40F9-8171-7AA1A72B888D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="215" name="図 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE66EE82-2BAC-4FB1-9CC4-5550BC002550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3236,19 +2036,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C3C282-78C7-4170-8A8F-EFF5F812A3E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="216" name="図 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0302D5-7E3A-464F-A54F-40ACD3A83A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3286,19 +2086,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04059129-08F9-463F-ACC4-79AA32AF4BCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="217" name="図 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7672FA-4933-4B34-B702-56A558423EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3336,19 +2136,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937E5130-EF6B-45A3-81AB-BF78865541BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="218" name="図 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2849AF43-EA0D-4DE5-9535-FBA58ED6E739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3386,19 +2186,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4FCF21-22D5-48FC-8CE5-8BAA232AC65E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="219" name="図 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C39FCEB-4FD1-458A-A05C-5BD4417A2240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3436,19 +2236,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54A7CA-9167-483B-A6A5-19EF19342D46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="220" name="図 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEFF69B-19DB-44E8-A8ED-1433C6820CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3486,19 +2286,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF074B27-710A-49AA-A109-3F3B2233B59C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <xdr:cNvPr id="221" name="図 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946E7ADA-A289-4C0D-B716-BF1D0547DFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3523,45 +2323,1795 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="図 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4F4E83-1E83-4B80-9607-B26E5397C01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="図 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42C4BC-4380-F78D-7BAF-08D38DE2A842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="547688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="図 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660BA768-800B-D7EC-2292-ACB6E55D1697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="547688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="図 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C6B2F1-DE5C-C4E8-CA3B-005671D49740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="図 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391A60E5-0DB2-4F3E-B391-B669C6C91138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="図 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118EC5B9-5CE8-4443-B5C4-8139A0D6B442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3595688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="240" name="図 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA2F8B-CD50-A7C5-EFC1-031CE5958FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="図 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0380891-36F8-43CF-9570-87BA83FF193D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="図 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D99892-CCF0-4A29-BE9E-823F40EA79C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="244" name="図 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8CBBA6-DDC3-CFCE-88D2-F5B852154E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1119188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="図 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE95D055-91CA-1AB0-B9C5-E70A36BAA717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1119188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="図 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52289DA6-B136-B82D-8F7E-C83BF4AC7744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="図 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E946B2-CFFF-4AFA-ABB1-7D1CB8D028BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="図 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2798E1E-5C76-47B4-90D1-F463FCF9337A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="図 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AFDF6F-308A-587D-7BD8-52F4A4F270C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="図 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3A4588-6261-4C4F-AB65-4C33EE980A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="254" name="図 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CE7918-C28E-4FB9-BE5D-E35B009B79CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="256" name="図 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F36692-2336-2737-B71A-922DFA82369D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="258" name="図 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACF1D81-1340-7F93-89E5-7E9741B545B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="図 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652A3053-96BA-B6F6-A843-72774FF4D81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2262188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="図 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89870F3-5666-B598-6B9A-DFD99BF36CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="2262188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="272" name="図 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593205F5-B6B8-25B6-801B-5EF5E3D31E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="273" name="図 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5DC195-CE74-4EC6-AF1C-C03A56683036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="274" name="図 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B0C92-355E-4F28-84BA-A510CCEDBA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="276" name="図 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5875C92B-0055-0F97-2503-C9BB4E16E474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="277" name="図 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB5E2B5-DCE1-41BA-AFBA-AA2B04EAF98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="278" name="図 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ADA7-7456-455E-834F-F90440F0F9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2071688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="280" name="図 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3178BA-CF39-1F75-F14D-082DF2D44982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="281" name="図 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D09C0C-91F7-466E-96F5-AE99CF21AAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="282" name="図 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A98649-117F-4FB9-A671-AD78068CA31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2452688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="284" name="図 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE04B97E-B43E-13A6-4AF1-240435FB66C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="図 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F5E8BD-5058-4894-937C-05FD20F6435B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="286" name="図 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0D3C75-7D3C-4294-A8DB-FC4106653AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2452688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="288" name="図 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC05A4B-465F-6ABF-BD49-C912883BAE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="290" name="図 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215A594-4FA4-209F-A97C-C84FB58F23D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47AD491-F819-57F8-3EC0-8D3ABE544C32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="3214688"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="292" name="図 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943E3BA-13CF-C785-0B42-0A601BB1F01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3595688"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3573,45 +4123,445 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="293" name="図 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F37DECC-41BD-439A-889F-CCF5933EF252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2071688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="295" name="図 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93767BEA-85CE-A979-3BD7-6388B266D950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="296" name="図 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B290D08D-2607-45C5-A7E9-AB8F2E9E33D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="298" name="図 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86DE2B2-E5F8-2587-D8BE-9AA785265DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="300" name="図 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0808CB3-DE7A-12CB-1847-C9D63F45DB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="302" name="図 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD47464-701C-1306-65BA-5DA55D499D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3595688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="303" name="図 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E16F19-471A-449D-978F-5B32A3AEF7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="305" name="図 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A311EC74-01C1-2C0C-03E1-FAAFFE5D7F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA04EC2E-5778-421C-8142-0790C64ED459}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="3214688"/>
+        <xdr:cNvPr id="306" name="図 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBC7044-48CB-4277-B195-B05829B245A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3214688"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3623,45 +4573,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA759FD-4531-407C-BB2C-EE626B83E2F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="3214688"/>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="308" name="図 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED9D74E-840D-B1F8-566E-163B7ADFFA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="3405188"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3673,395 +4623,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F23D81-922E-466F-88A1-4A126FA91381}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AD7491-BB81-4173-AE1D-E586F1E86E54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C115BC-E78B-4947-B70C-C46DEAC3F598}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3619500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E14F823-E8B6-406D-A5B7-996777E8FBCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4644DCB8-9CFA-44E2-8257-58574D89C5E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4381500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1E532F-7DC2-4387-94F1-EF884E5A3481}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4762500" y="3214688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5583DF-613D-4F4D-91C2-2BE8E648938C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="3976688"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461FDF8B-6062-4586-AF59-78BCEAC1B726}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="928688"/>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="310" name="図 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC869F45-7EDF-DAA9-061F-7F9D43F2387E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="3405188"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7067,7 +7667,7 @@
   <dimension ref="A1:AJ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7116,79 +7716,79 @@
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34">
         <v>512</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="9">
         <v>4</v>
       </c>
       <c r="R2" s="8"/>
-      <c r="S2" s="155" t="s">
+      <c r="S2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="155" t="s">
+      <c r="T2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="155" t="s">
+      <c r="U2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155" t="s">
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="155" t="s">
+      <c r="X2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="155" t="s">
+      <c r="Y2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="155" t="s">
+      <c r="Z2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="155" t="s">
+      <c r="AA2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="155" t="s">
+      <c r="AB2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="155" t="s">
+      <c r="AC2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155" t="s">
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="155" t="s">
+      <c r="AF2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="155" t="s">
+      <c r="AG2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="155" t="s">
+      <c r="AH2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="155" t="s">
+      <c r="AI2" s="30" t="s">
         <v>30</v>
       </c>
       <c r="AJ2" s="8"/>
@@ -7212,7 +7812,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="156" t="s">
+      <c r="S3" s="31" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="8"/>
@@ -7243,42 +7843,42 @@
       <c r="G4" s="8"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="35">
+      <c r="J4" s="37">
         <v>90</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35">
+      <c r="K4" s="37"/>
+      <c r="L4" s="37">
         <v>80</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37">
         <v>70</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35">
+      <c r="O4" s="37"/>
+      <c r="P4" s="37">
         <v>60</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
         <v>50</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35">
+      <c r="S4" s="37"/>
+      <c r="T4" s="37">
         <v>40</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37">
         <v>30</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35">
+      <c r="W4" s="37"/>
+      <c r="X4" s="37">
         <v>20</v>
       </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37">
         <v>10</v>
       </c>
-      <c r="AA4" s="35"/>
+      <c r="AA4" s="37"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="8"/>
@@ -7299,24 +7899,24 @@
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="8"/>
@@ -7330,39 +7930,39 @@
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41">
         <v>10</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="46">
+      <c r="I6" s="70"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="53">
         <v>1</v>
       </c>
-      <c r="AC6" s="47"/>
+      <c r="AC6" s="54"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
@@ -7374,33 +7974,33 @@
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="47"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="54"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -7412,39 +8012,39 @@
     <row r="8" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57">
         <v>3</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="149" t="s">
+      <c r="H8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="150"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="46">
+      <c r="I8" s="70"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="53">
         <v>2</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="54"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -7456,33 +8056,33 @@
     <row r="9" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="47"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="12"/>
@@ -7494,420 +8094,420 @@
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41">
         <v>2</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="149" t="s">
+      <c r="H10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="150"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="46">
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="53">
         <v>3</v>
       </c>
-      <c r="AC10" s="47"/>
+      <c r="AC10" s="54"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="57">
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="72">
         <v>1</v>
       </c>
-      <c r="AH10" s="58"/>
+      <c r="AH10" s="73"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="47"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="54"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="58"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="73"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57">
         <v>4</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="151" t="s">
+      <c r="H12" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="69">
+      <c r="I12" s="122"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="89">
         <v>4</v>
       </c>
-      <c r="AC12" s="70"/>
+      <c r="AC12" s="90"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="73">
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="97">
         <v>1</v>
       </c>
-      <c r="AH12" s="74"/>
+      <c r="AH12" s="98"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="70"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="90"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="74"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="98"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41">
         <v>1</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="151" t="s">
+      <c r="H14" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="69">
+      <c r="I14" s="122"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="89">
         <v>5</v>
       </c>
-      <c r="AC14" s="70"/>
+      <c r="AC14" s="90"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="57">
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="72">
         <v>1</v>
       </c>
-      <c r="AH14" s="58"/>
+      <c r="AH14" s="73"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="70"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="90"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="73"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57">
         <v>1</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="151" t="s">
+      <c r="H16" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="152"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="69">
+      <c r="I16" s="122"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="89">
         <v>6</v>
       </c>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="90"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="73">
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="97">
         <v>4</v>
       </c>
-      <c r="AH16" s="74"/>
+      <c r="AH16" s="98"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="70"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="74"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="98"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41">
         <v>1</v>
       </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="153" t="s">
+      <c r="H18" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="154"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="83">
+      <c r="I18" s="124"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="111">
         <v>7</v>
       </c>
-      <c r="AC18" s="84"/>
+      <c r="AC18" s="112"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="57">
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="72">
         <v>2</v>
       </c>
-      <c r="AH18" s="58"/>
+      <c r="AH18" s="73"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="84"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="112"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="58"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="73"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
     </row>
@@ -7919,39 +8519,39 @@
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="153" t="s">
+      <c r="H20" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="154"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="83">
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="111">
         <v>8</v>
       </c>
-      <c r="AC20" s="84"/>
+      <c r="AC20" s="112"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="73">
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="97">
         <v>3</v>
       </c>
-      <c r="AH20" s="74"/>
+      <c r="AH20" s="98"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
     </row>
@@ -7963,33 +8563,33 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="84"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="112"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="74"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="98"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
     </row>
@@ -8001,39 +8601,39 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="153" t="s">
+      <c r="H22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="83">
+      <c r="I22" s="124"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="111">
         <v>9</v>
       </c>
-      <c r="AC22" s="84"/>
+      <c r="AC22" s="112"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="57">
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="72">
         <v>10</v>
       </c>
-      <c r="AH22" s="58"/>
+      <c r="AH22" s="73"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
     </row>
@@ -8045,33 +8645,33 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="84"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="112"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="58"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="73"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
     </row>
@@ -8315,9 +8915,7 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="L16:M17"/>
     <mergeCell ref="AB22:AC23"/>
     <mergeCell ref="AE22:AF23"/>
     <mergeCell ref="AG22:AH23"/>
@@ -8337,7 +8935,17 @@
     <mergeCell ref="Z20:AA21"/>
     <mergeCell ref="AB20:AC21"/>
     <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="X18:Y19"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="J18:K19"/>
@@ -8347,21 +8955,6 @@
     <mergeCell ref="R18:S19"/>
     <mergeCell ref="T18:U19"/>
     <mergeCell ref="V18:W19"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="V16:W17"/>
-    <mergeCell ref="X16:Y17"/>
-    <mergeCell ref="Z16:AA17"/>
-    <mergeCell ref="AB16:AC17"/>
-    <mergeCell ref="AE16:AF17"/>
-    <mergeCell ref="X18:Y19"/>
-    <mergeCell ref="Z18:AA19"/>
-    <mergeCell ref="AB18:AC19"/>
-    <mergeCell ref="AE18:AF19"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="L16:M17"/>
     <mergeCell ref="N16:O17"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="R16:S17"/>
@@ -8371,6 +8964,13 @@
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AE12:AF13"/>
     <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="V16:W17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="Z16:AA17"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AE16:AF17"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="J14:K15"/>
@@ -8469,30 +9069,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112">
+      <c r="D2" s="151"/>
+      <c r="E2" s="152">
         <v>512</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114" t="s">
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="111" t="s">
+      <c r="L2" s="154"/>
+      <c r="M2" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
       <c r="Q2" s="1">
         <v>4</v>
       </c>
@@ -8524,42 +9124,42 @@
     </row>
     <row r="5" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="87" t="s">
+      <c r="J5" s="128"/>
+      <c r="K5" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="87" t="s">
+      <c r="L5" s="128"/>
+      <c r="M5" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="87" t="s">
+      <c r="N5" s="128"/>
+      <c r="O5" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="87" t="s">
+      <c r="P5" s="128"/>
+      <c r="Q5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87" t="s">
+      <c r="R5" s="128"/>
+      <c r="S5" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="87" t="s">
+      <c r="T5" s="128"/>
+      <c r="U5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="88"/>
-      <c r="W5" s="87" t="s">
+      <c r="V5" s="128"/>
+      <c r="W5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="87" t="s">
+      <c r="X5" s="128"/>
+      <c r="Y5" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="88"/>
+      <c r="Z5" s="128"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -8570,146 +9170,146 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="88">
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="128">
         <v>10</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="128"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="88" t="s">
+      <c r="I7" s="156"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="88"/>
+      <c r="AB7" s="128"/>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="88">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="128">
         <v>3</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="128"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="88" t="s">
+      <c r="I9" s="142"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="88"/>
+      <c r="AB9" s="128"/>
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -8717,354 +9317,354 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="88">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="128">
         <v>2</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="88" t="s">
+      <c r="I11" s="142"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="AB11" s="88"/>
+      <c r="AB11" s="128"/>
       <c r="AC11" s="2"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="88">
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="128">
         <v>1</v>
       </c>
-      <c r="AH11" s="88"/>
+      <c r="AH11" s="128"/>
     </row>
     <row r="12" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
       <c r="AC12" s="2"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
     </row>
     <row r="13" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="88">
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="128">
         <v>4</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="128"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="88" t="s">
+      <c r="I13" s="142"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="88"/>
+      <c r="AB13" s="128"/>
       <c r="AC13" s="2"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="88">
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="128">
         <v>1</v>
       </c>
-      <c r="AH13" s="88"/>
+      <c r="AH13" s="128"/>
     </row>
     <row r="14" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
       <c r="AC14" s="2"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
+      <c r="AE14" s="150"/>
+      <c r="AF14" s="150"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
     </row>
     <row r="15" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="88">
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="128">
         <v>1</v>
       </c>
-      <c r="F15" s="88"/>
+      <c r="F15" s="128"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="88" t="s">
+      <c r="I15" s="142"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="88"/>
+      <c r="AB15" s="128"/>
       <c r="AC15" s="2"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="88">
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="128">
         <v>1</v>
       </c>
-      <c r="AH15" s="88"/>
+      <c r="AH15" s="128"/>
     </row>
     <row r="16" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
       <c r="AC16" s="2"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
     </row>
     <row r="17" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="88">
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="128">
         <v>1</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="128"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="88" t="s">
+      <c r="I17" s="142"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="88"/>
+      <c r="AB17" s="128"/>
       <c r="AC17" s="2"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="88">
+      <c r="AE17" s="150"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="128">
         <v>4</v>
       </c>
-      <c r="AH17" s="88"/>
+      <c r="AH17" s="128"/>
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
       <c r="AC18" s="2"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
     </row>
     <row r="19" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="88">
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="128">
         <v>1</v>
       </c>
-      <c r="F19" s="88"/>
+      <c r="F19" s="128"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="88" t="s">
+      <c r="I19" s="142"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AB19" s="88"/>
+      <c r="AB19" s="128"/>
       <c r="AC19" s="2"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="88">
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="128">
         <v>2</v>
       </c>
-      <c r="AH19" s="88"/>
+      <c r="AH19" s="128"/>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
+      <c r="AE20" s="150"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
@@ -9072,123 +9672,123 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="88" t="s">
+      <c r="I21" s="142"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="88"/>
+      <c r="AB21" s="128"/>
       <c r="AC21" s="2"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="88">
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="128">
         <v>3</v>
       </c>
-      <c r="AH21" s="88"/>
+      <c r="AH21" s="128"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
       <c r="AC22" s="2"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="88" t="s">
+      <c r="I23" s="142"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AB23" s="88"/>
+      <c r="AB23" s="128"/>
       <c r="AC23" s="2"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="88">
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="128">
         <v>10</v>
       </c>
-      <c r="AH23" s="88"/>
+      <c r="AH23" s="128"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H24" s="2"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
       <c r="AC24" s="2"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>

--- a/plans/将棋盤のレイアウト模索.xlsx
+++ b/plans/将棋盤のレイアウト模索.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\kifuwarabe-wcsc35-kifuuuuuuwarabe-beginning\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A07636-7ED3-4A9E-BCC6-B70FB004E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC240AD-0494-4837-8A49-F7CD25C05D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="630" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="5360" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ver2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Next</t>
     <phoneticPr fontId="1"/>
@@ -197,12 +197,20 @@
     <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,29 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="2" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -282,6 +267,23 @@
       <color theme="4"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -930,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -942,9 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -971,26 +970,275 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,359 +1246,110 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7666,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6507516-9E1B-45D7-89CB-128857834274}">
   <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7716,79 +7715,79 @@
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34">
+      <c r="D2" s="122"/>
+      <c r="E2" s="123">
         <v>512</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36" t="s">
-        <v>2</v>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125" t="s">
+        <v>38</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="33" t="s">
-        <v>3</v>
+      <c r="L2" s="125"/>
+      <c r="M2" s="122" t="s">
+        <v>37</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="9">
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="31">
         <v>4</v>
       </c>
       <c r="R2" s="8"/>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>30</v>
       </c>
       <c r="AJ2" s="8"/>
@@ -7812,7 +7811,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="8"/>
@@ -7843,42 +7842,42 @@
       <c r="G4" s="8"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="37">
+      <c r="J4" s="119">
         <v>90</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119">
         <v>80</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37">
+      <c r="M4" s="119"/>
+      <c r="N4" s="119">
         <v>70</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37">
+      <c r="O4" s="119"/>
+      <c r="P4" s="119">
         <v>60</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37">
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119">
         <v>50</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37">
+      <c r="S4" s="119"/>
+      <c r="T4" s="119">
         <v>40</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37">
+      <c r="U4" s="119"/>
+      <c r="V4" s="119">
         <v>30</v>
       </c>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37">
+      <c r="W4" s="119"/>
+      <c r="X4" s="119">
         <v>20</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37">
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119">
         <v>10</v>
       </c>
-      <c r="AA4" s="37"/>
+      <c r="AA4" s="119"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="8"/>
@@ -7895,29 +7894,29 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
@@ -7930,39 +7929,39 @@
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41">
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83">
         <v>10</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="53">
+      <c r="I6" s="33"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="108">
         <v>1</v>
       </c>
-      <c r="AC6" s="54"/>
+      <c r="AC6" s="109"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
@@ -7974,33 +7973,33 @@
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="54"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -8012,39 +8011,39 @@
     <row r="8" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57">
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75">
         <v>3</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="53">
+      <c r="I8" s="33"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="108">
         <v>2</v>
       </c>
-      <c r="AC8" s="54"/>
+      <c r="AC8" s="109"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -8056,502 +8055,502 @@
     <row r="9" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="16"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="15"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41">
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83">
         <v>2</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="53">
+      <c r="I10" s="33"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="108">
         <v>3</v>
       </c>
-      <c r="AC10" s="54"/>
+      <c r="AC10" s="109"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="72">
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54">
         <v>1</v>
       </c>
-      <c r="AH10" s="73"/>
+      <c r="AH10" s="55"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="73"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="55"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57">
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75">
         <v>4</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="121" t="s">
+      <c r="H12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="89">
+      <c r="I12" s="35"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="90">
         <v>4</v>
       </c>
-      <c r="AC12" s="90"/>
+      <c r="AC12" s="91"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="97">
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="56">
         <v>1</v>
       </c>
-      <c r="AH12" s="98"/>
+      <c r="AH12" s="57"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="90"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="98"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="57"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83">
         <v>1</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="89">
+      <c r="I14" s="35"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="90">
         <v>5</v>
       </c>
-      <c r="AC14" s="90"/>
+      <c r="AC14" s="91"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="72">
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54">
         <v>1</v>
       </c>
-      <c r="AH14" s="73"/>
+      <c r="AH14" s="55"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="90"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="73"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="55"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75">
         <v>1</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="89">
+      <c r="I16" s="35"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="90">
         <v>6</v>
       </c>
-      <c r="AC16" s="90"/>
+      <c r="AC16" s="91"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="97">
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="56">
         <v>4</v>
       </c>
-      <c r="AH16" s="98"/>
+      <c r="AH16" s="57"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="91"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="98"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="57"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41">
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="111">
+      <c r="I18" s="37"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="50">
         <v>7</v>
       </c>
-      <c r="AC18" s="112"/>
+      <c r="AC18" s="51"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="72">
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="54">
         <v>2</v>
       </c>
-      <c r="AH18" s="73"/>
+      <c r="AH18" s="55"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="112"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="73"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="55"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="123" t="s">
+      <c r="H20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="111">
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="50">
         <v>8</v>
       </c>
-      <c r="AC20" s="112"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="97">
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="56">
         <v>3</v>
       </c>
-      <c r="AH20" s="98"/>
+      <c r="AH20" s="57"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
     </row>
@@ -8563,33 +8562,33 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="112"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="98"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="57"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
     </row>
@@ -8601,39 +8600,39 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="123" t="s">
+      <c r="H22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="124"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="111">
+      <c r="I22" s="37"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="50">
         <v>9</v>
       </c>
-      <c r="AC22" s="112"/>
+      <c r="AC22" s="51"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="72">
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="54">
         <v>10</v>
       </c>
-      <c r="AH22" s="73"/>
+      <c r="AH22" s="55"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
     </row>
@@ -8645,33 +8644,33 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="112"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="51"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="73"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="55"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
     </row>
@@ -8683,33 +8682,33 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="24"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="15"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="14"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
     </row>
@@ -8721,28 +8720,28 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="26"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
@@ -8906,83 +8905,46 @@
     <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="AB22:AC23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AG22:AH23"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="T20:U21"/>
-    <mergeCell ref="V20:W21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="Z20:AA21"/>
-    <mergeCell ref="AB20:AC21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="X18:Y19"/>
-    <mergeCell ref="Z18:AA19"/>
-    <mergeCell ref="AB18:AC19"/>
-    <mergeCell ref="AE18:AF19"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:S19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="V18:W19"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AE12:AF13"/>
-    <mergeCell ref="AG12:AH13"/>
-    <mergeCell ref="AG16:AH17"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="V16:W17"/>
-    <mergeCell ref="X16:Y17"/>
-    <mergeCell ref="Z16:AA17"/>
-    <mergeCell ref="AB16:AC17"/>
-    <mergeCell ref="AE16:AF17"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="AB14:AC15"/>
-    <mergeCell ref="AE14:AF15"/>
-    <mergeCell ref="AG14:AH15"/>
-    <mergeCell ref="T14:U15"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Y15"/>
-    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="V4:W5"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="AB6:AC7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="AB8:AC9"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="H8:I9"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="J10:K11"/>
@@ -9007,46 +8969,83 @@
     <mergeCell ref="AB10:AC11"/>
     <mergeCell ref="AE10:AF11"/>
     <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="AB6:AC7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="V8:W9"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="T6:U7"/>
-    <mergeCell ref="V6:W7"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="Z6:AA7"/>
-    <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="Z8:AA9"/>
-    <mergeCell ref="AB8:AC9"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="Z4:AA5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="V4:W5"/>
-    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AE14:AF15"/>
+    <mergeCell ref="AG14:AH15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="V16:W17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="Z16:AA17"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="X18:Y19"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="V18:W19"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="AB22:AC23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="V20:W21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="Z20:AA21"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L16:M17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9069,30 +9068,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152">
+      <c r="D2" s="139"/>
+      <c r="E2" s="140">
         <v>512</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="153" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="154" t="s">
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="151" t="s">
+      <c r="L2" s="142"/>
+      <c r="M2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
       <c r="Q2" s="1">
         <v>4</v>
       </c>
@@ -9124,42 +9123,42 @@
     </row>
     <row r="5" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="128"/>
-      <c r="K5" s="127" t="s">
+      <c r="J5" s="127"/>
+      <c r="K5" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="128"/>
-      <c r="M5" s="127" t="s">
+      <c r="L5" s="127"/>
+      <c r="M5" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="128"/>
-      <c r="O5" s="127" t="s">
+      <c r="N5" s="127"/>
+      <c r="O5" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="127" t="s">
+      <c r="P5" s="127"/>
+      <c r="Q5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="128"/>
-      <c r="S5" s="127" t="s">
+      <c r="R5" s="127"/>
+      <c r="S5" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="127" t="s">
+      <c r="T5" s="127"/>
+      <c r="U5" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="128"/>
-      <c r="W5" s="127" t="s">
+      <c r="V5" s="127"/>
+      <c r="W5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="127" t="s">
+      <c r="X5" s="127"/>
+      <c r="Y5" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="128"/>
+      <c r="Z5" s="127"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -9170,146 +9169,146 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="128">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127">
         <v>10</v>
       </c>
-      <c r="F7" s="128"/>
+      <c r="F7" s="127"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="128" t="s">
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="128"/>
+      <c r="AB7" s="127"/>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="128">
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127">
         <v>3</v>
       </c>
-      <c r="F9" s="128"/>
+      <c r="F9" s="127"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="128" t="s">
+      <c r="I9" s="132"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="128"/>
+      <c r="AB9" s="127"/>
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -9317,354 +9316,354 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="128">
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127">
         <v>2</v>
       </c>
-      <c r="F11" s="128"/>
+      <c r="F11" s="127"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="128" t="s">
+      <c r="I11" s="132"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="AB11" s="128"/>
+      <c r="AB11" s="127"/>
       <c r="AC11" s="2"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="128">
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="127">
         <v>1</v>
       </c>
-      <c r="AH11" s="128"/>
+      <c r="AH11" s="127"/>
     </row>
     <row r="12" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
       <c r="AC12" s="2"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
     </row>
     <row r="13" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="128">
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127">
         <v>4</v>
       </c>
-      <c r="F13" s="128"/>
+      <c r="F13" s="127"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="128" t="s">
+      <c r="I13" s="132"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="128"/>
+      <c r="AB13" s="127"/>
       <c r="AC13" s="2"/>
-      <c r="AE13" s="150"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="128">
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="127">
         <v>1</v>
       </c>
-      <c r="AH13" s="128"/>
+      <c r="AH13" s="127"/>
     </row>
     <row r="14" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
       <c r="AC14" s="2"/>
-      <c r="AE14" s="150"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="128"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
     </row>
     <row r="15" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="128">
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127">
         <v>1</v>
       </c>
-      <c r="F15" s="128"/>
+      <c r="F15" s="127"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="128" t="s">
+      <c r="I15" s="132"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="128"/>
+      <c r="AB15" s="127"/>
       <c r="AC15" s="2"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="128">
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="127">
         <v>1</v>
       </c>
-      <c r="AH15" s="128"/>
+      <c r="AH15" s="127"/>
     </row>
     <row r="16" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
       <c r="AC16" s="2"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
     </row>
     <row r="17" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="128">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127">
         <v>1</v>
       </c>
-      <c r="F17" s="128"/>
+      <c r="F17" s="127"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="128" t="s">
+      <c r="I17" s="132"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="128"/>
+      <c r="AB17" s="127"/>
       <c r="AC17" s="2"/>
-      <c r="AE17" s="150"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="128">
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="127">
         <v>4</v>
       </c>
-      <c r="AH17" s="128"/>
+      <c r="AH17" s="127"/>
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
       <c r="AC18" s="2"/>
-      <c r="AE18" s="150"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
     </row>
     <row r="19" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="128">
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127">
         <v>1</v>
       </c>
-      <c r="F19" s="128"/>
+      <c r="F19" s="127"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="128" t="s">
+      <c r="I19" s="132"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AB19" s="128"/>
+      <c r="AB19" s="127"/>
       <c r="AC19" s="2"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="128">
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="127">
         <v>2</v>
       </c>
-      <c r="AH19" s="128"/>
+      <c r="AH19" s="127"/>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="150"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
+      <c r="AE20" s="126"/>
+      <c r="AF20" s="126"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
@@ -9672,123 +9671,123 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="136"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="128" t="s">
+      <c r="I21" s="132"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="128"/>
+      <c r="AB21" s="127"/>
       <c r="AC21" s="2"/>
-      <c r="AE21" s="150"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="128">
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="126"/>
+      <c r="AG21" s="127">
         <v>3</v>
       </c>
-      <c r="AH21" s="128"/>
+      <c r="AH21" s="127"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
       <c r="AC22" s="2"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="128" t="s">
+      <c r="I23" s="132"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB23" s="128"/>
+      <c r="AB23" s="127"/>
       <c r="AC23" s="2"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="128">
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="127">
         <v>10</v>
       </c>
-      <c r="AH23" s="128"/>
+      <c r="AH23" s="127"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H24" s="2"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
       <c r="AC24" s="2"/>
-      <c r="AE24" s="150"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="127"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
@@ -9899,6 +9898,114 @@
     <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="AG15:AH16"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="AE23:AF24"/>
+    <mergeCell ref="AG23:AH24"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AH20"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AG13:AH14"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="AG17:AH18"/>
+    <mergeCell ref="AE15:AF16"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="C9:D10"/>
@@ -9923,114 +10030,6 @@
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="I7:J8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AG13:AH14"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AG11:AH12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="AG17:AH18"/>
-    <mergeCell ref="AE15:AF16"/>
-    <mergeCell ref="AG15:AH16"/>
-    <mergeCell ref="Y23:Z24"/>
-    <mergeCell ref="AE23:AF24"/>
-    <mergeCell ref="AG23:AH24"/>
-    <mergeCell ref="AE21:AF22"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="AE19:AF20"/>
-    <mergeCell ref="AG19:AH20"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="O19:P20"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="K5:L6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plans/将棋盤のレイアウト模索.xlsx
+++ b/plans/将棋盤のレイアウト模索.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\kifuwarabe-wcsc35-kifuuuuuuwarabe-beginning\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC240AD-0494-4837-8A49-F7CD25C05D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E6894-E7D3-4D24-A867-63129AE0B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="5360" windowWidth="35100" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="390" windowWidth="25490" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ver2" sheetId="2" r:id="rId1"/>
-    <sheet name="Ver1" sheetId="1" r:id="rId2"/>
+    <sheet name="Ver3" sheetId="3" r:id="rId1"/>
+    <sheet name="Ver2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ver1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Next</t>
     <phoneticPr fontId="1"/>
@@ -203,6 +204,10 @@
   </si>
   <si>
     <t>White</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1357,6 +1362,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1D1B10"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1385,10 +1395,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="202" name="図 201">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A48A6AF-29D1-8008-CBE8-D256D42BC03C}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBA6951-16A1-4498-87DF-DF0C575E7ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="3214688"/>
+          <a:off x="1714500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1435,10 +1445,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="203" name="図 202">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F38FB37-8BAB-4CD5-B849-0213431F82B4}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4C84EF-959D-47D7-9132-5E2FAE17482D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="3214688"/>
+          <a:off x="2095500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,10 +1495,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="204" name="図 203">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D39950-39B0-4C08-9E28-FFBD7ACFA1A1}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E3647A-15D5-4E9B-9156-9E70865D6458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1520,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="3214688"/>
+          <a:off x="2476500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1535,10 +1545,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="205" name="図 204">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9CA09B-C8B2-4419-B90D-90D7CF733397}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C741B8D2-6D03-43C6-B63A-635AC2D6747E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="3214688"/>
+          <a:off x="2857500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1585,10 +1595,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="206" name="図 205">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7303B0-7A96-4B22-B33D-E34F49D113D0}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54C9FC7-C24F-4882-8C7D-E06074FF37F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="3214688"/>
+          <a:off x="3238500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1635,10 +1645,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="207" name="図 206">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DEF918-ECD6-4622-AF55-4FF1A423C940}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489E99FE-29EF-41C1-80C0-4FA12258BEE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="3214688"/>
+          <a:off x="3619500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1685,10 +1695,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="208" name="図 207">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A535A-B04D-45C4-9A5E-E0DE7EAA9C85}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6F4BB3-E3A1-44D3-8FF4-B9C5159E7CB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="3214688"/>
+          <a:off x="4000500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1735,10 +1745,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="209" name="図 208">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A2A06E-B0C3-4ECE-BC70-2DEC9A6A899C}"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38F6C6A-1D6D-43A1-ADAD-5BFE5349AAA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="3214688"/>
+          <a:off x="4381500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1785,10 +1795,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="210" name="図 209">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F48915-0CA0-4C72-9A53-39A4DC5C84BA}"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239077B1-80F2-401A-82E1-9888EBA35832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1820,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3214688"/>
+          <a:off x="4762500" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1835,10 +1845,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="211" name="図 210">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19C0082-F3B6-4F38-AD60-291B28F41C3E}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574BA9D1-885C-4F3A-A4FD-F56920745E46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="3976688"/>
+          <a:off x="5715000" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1885,10 +1895,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="213" name="図 212">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F700B1-2D3B-5DF4-1AF2-775CB3FABB77}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81361DC-57C4-4622-8A0A-D618071DA14C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1920,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="1690688"/>
+          <a:off x="1714500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1935,10 +1945,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="214" name="図 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BF3AFC-9692-4CB7-BF0E-8FD1E55AF3D1}"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919C0996-4473-4E25-8D98-DEEBFEDCA1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="1690688"/>
+          <a:off x="2095500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1985,10 +1995,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="図 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE66EE82-2BAC-4FB1-9CC4-5550BC002550}"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DDBF69-FE0F-4ECD-8FE3-47A66D67505A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="1690688"/>
+          <a:off x="2476500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2035,10 +2045,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="216" name="図 215">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0302D5-7E3A-464F-A54F-40ACD3A83A26}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82A72F4-BE97-45F1-88CF-09B804A73960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="1690688"/>
+          <a:off x="2857500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2085,10 +2095,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="図 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7672FA-4933-4B34-B702-56A558423EAC}"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BF5D43-4C04-479D-951D-F3798BC76123}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="1690688"/>
+          <a:off x="3238500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2135,10 +2145,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="図 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2849AF43-EA0D-4DE5-9535-FBA58ED6E739}"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8998F6C0-2D61-4CDB-90BB-3A5452E42DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="1690688"/>
+          <a:off x="3619500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2185,10 +2195,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="図 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C39FCEB-4FD1-458A-A05C-5BD4417A2240}"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8690A29E-8AB3-462B-A9CC-C9A4F57C522C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1690688"/>
+          <a:off x="4000500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2235,10 +2245,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="図 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEFF69B-19DB-44E8-A8ED-1433C6820CD2}"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEF0010-9609-4780-9B9A-34B9F4A2063B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="1690688"/>
+          <a:off x="4381500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2285,10 +2295,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="図 220">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946E7ADA-A289-4C0D-B716-BF1D0547DFA2}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D4B390-D632-414A-98B7-C43FAE604201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="1690688"/>
+          <a:off x="4762500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2335,10 +2345,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="図 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4F4E83-1E83-4B80-9607-B26E5397C01A}"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D97CC46-FF6A-44C6-A936-BCCCF2CBC51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="928688"/>
+          <a:off x="381000" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2385,10 +2395,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="図 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42C4BC-4380-F78D-7BAF-08D38DE2A842}"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505EF0C6-1107-4630-90D6-2D239089B1DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="547688"/>
+          <a:off x="7048500" y="546100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2435,10 +2445,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="図 225">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660BA768-800B-D7EC-2292-ACB6E55D1697}"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0285E229-E746-4F56-BB93-6F1EB2ACC422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="547688"/>
+          <a:off x="7620000" y="546100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2485,10 +2495,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="236" name="図 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C6B2F1-DE5C-C4E8-CA3B-005671D49740}"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5986FF-FAE6-48E5-BE29-5C85DF075861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2520,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="3976688"/>
+          <a:off x="1714500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2535,10 +2545,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="237" name="図 236">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391A60E5-0DB2-4F3E-B391-B669C6C91138}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DB0914-2D0A-428B-992A-9938D565F6C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3976688"/>
+          <a:off x="4762500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2585,10 +2595,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="238" name="図 237">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118EC5B9-5CE8-4443-B5C4-8139A0D6B442}"/>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF5530F-9F63-4514-A7DB-6817A5238821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="3595688"/>
+          <a:off x="5715000" y="3594100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2635,10 +2645,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="240" name="図 239">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA2F8B-CD50-A7C5-EFC1-031CE5958FEC}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A5A8DD-A734-43C8-8F42-2D9BF842E9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="928688"/>
+          <a:off x="1714500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2685,10 +2695,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="241" name="図 240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0380891-36F8-43CF-9570-87BA83FF193D}"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E40CA3-313D-46AC-AB79-9DB0829AB88C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="928688"/>
+          <a:off x="4762500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2735,10 +2745,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="242" name="図 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D99892-CCF0-4A29-BE9E-823F40EA79C1}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139A544E-A12A-4D89-9C92-F4494B3A97CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="1309688"/>
+          <a:off x="381000" y="1308100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2785,10 +2795,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="244" name="図 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8CBBA6-DDC3-CFCE-88D2-F5B852154E8A}"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3999EE7B-C559-4390-BD97-C4A3808D84D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2820,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="1119188"/>
+          <a:off x="7048500" y="1117600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2835,10 +2845,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="246" name="図 245">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE95D055-91CA-1AB0-B9C5-E70A36BAA717}"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EED682-28BF-4895-B66D-C722DF158EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="1119188"/>
+          <a:off x="7620000" y="1117600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2885,10 +2895,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="248" name="図 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52289DA6-B136-B82D-8F7E-C83BF4AC7744}"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE9A27F-12A1-432F-8CE5-48E473CC90D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2920,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="3976688"/>
+          <a:off x="2095500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2935,10 +2945,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="図 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E946B2-CFFF-4AFA-ABB1-7D1CB8D028BE}"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA300FC2-5D84-4DCE-811A-3EF14C97CCB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="3976688"/>
+          <a:off x="4381500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2985,10 +2995,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="250" name="図 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2798E1E-5C76-47B4-90D1-F463FCF9337A}"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CA8FAB-55B7-43A6-8D2B-603AB5669CF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="3214688"/>
+          <a:off x="5715000" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3035,10 +3045,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="図 251">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AFDF6F-308A-587D-7BD8-52F4A4F270C0}"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551BF945-DA23-42AA-A0AA-7AB6066A5E85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="928688"/>
+          <a:off x="2095500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3085,10 +3095,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="253" name="図 252">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3A4588-6261-4C4F-AB65-4C33EE980A25}"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3107866F-8704-4DDC-A3FB-B66B60DFE678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="928688"/>
+          <a:off x="4381500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3135,10 +3145,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="254" name="図 253">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CE7918-C28E-4FB9-BE5D-E35B009B79CA}"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0C9241-A237-40AD-9B01-47A7137729F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="1690688"/>
+          <a:off x="381000" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3185,10 +3195,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="256" name="図 255">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F36692-2336-2737-B71A-922DFA82369D}"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CE73EC-3B39-456B-AD54-BBD449AC3B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="1690688"/>
+          <a:off x="7048500" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3235,10 +3245,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="258" name="図 257">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACF1D81-1340-7F93-89E5-7E9741B545B4}"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794A24BF-FE27-4370-AA49-AAA26E971E12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="1690688"/>
+          <a:off x="7620000" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3285,10 +3295,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="260" name="図 259">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652A3053-96BA-B6F6-A843-72774FF4D81D}"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237E2150-FF58-4DB0-85E6-DBA384B70969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="2262188"/>
+          <a:off x="7048500" y="2260600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3335,10 +3345,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="262" name="図 261">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89870F3-5666-B598-6B9A-DFD99BF36CE8}"/>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A732137C-9540-453C-B4E7-E9E1B28E7A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2262188"/>
+          <a:off x="7620000" y="2260600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3385,10 +3395,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="272" name="図 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593205F5-B6B8-25B6-801B-5EF5E3D31E12}"/>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E58899-8E83-4554-93B3-A79F5E5B57FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3410,7 +3420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="3976688"/>
+          <a:off x="2476500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3435,10 +3445,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="273" name="図 272">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5DC195-CE74-4EC6-AF1C-C03A56683036}"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042F3448-C727-4509-8107-5C4988D88B4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="3976688"/>
+          <a:off x="4000500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3485,10 +3495,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="274" name="図 273">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B0C92-355E-4F28-84BA-A510CCEDBA56}"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E90A459-3C6A-43A7-B293-820A44A12D62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3520,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="2833688"/>
+          <a:off x="5715000" y="2832100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3535,10 +3545,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="276" name="図 275">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5875C92B-0055-0F97-2503-C9BB4E16E474}"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AAD22E-599F-4E3F-B59A-4E95A94D49FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="928688"/>
+          <a:off x="2476500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3585,10 +3595,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="277" name="図 276">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB5E2B5-DCE1-41BA-AFBA-AA2B04EAF98D}"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4BEE13-A140-4C7E-9221-07C5B96D8CB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="928688"/>
+          <a:off x="4000500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3635,10 +3645,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="278" name="図 277">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ADA7-7456-455E-834F-F90440F0F9A0}"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C7063D-F7ED-467C-B846-0C0AA1148F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="2071688"/>
+          <a:off x="381000" y="2070100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3685,10 +3695,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="280" name="図 279">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3178BA-CF39-1F75-F14D-082DF2D44982}"/>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76707175-64BE-47D7-8836-17932EFEE63C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="3976688"/>
+          <a:off x="2857500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3735,10 +3745,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="281" name="図 280">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D09C0C-91F7-466E-96F5-AE99CF21AAEB}"/>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F8AE60-40C3-4DFE-AED8-AEFB7F5DC1D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="3976688"/>
+          <a:off x="3619500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3785,10 +3795,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="282" name="図 281">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A98649-117F-4FB9-A671-AD78068CA31B}"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E50AB22-D382-43EC-8081-2402CE971B81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3810,7 +3820,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="2452688"/>
+          <a:off x="5715000" y="2451100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3835,10 +3845,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="284" name="図 283">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE04B97E-B43E-13A6-4AF1-240435FB66C0}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3B92FD-F861-49C4-83BF-56827BD437D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +3870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="928688"/>
+          <a:off x="2857500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3885,10 +3895,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="285" name="図 284">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F5E8BD-5058-4894-937C-05FD20F6435B}"/>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFBBAB4-A480-4F2C-8CFF-889A06275A4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3920,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="928688"/>
+          <a:off x="3619500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3935,10 +3945,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="286" name="図 285">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0D3C75-7D3C-4294-A8DB-FC4106653AAB}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C35228A-7E4C-4AFA-BE10-10D05D852E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +3970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="2452688"/>
+          <a:off x="381000" y="2451100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3985,10 +3995,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="288" name="図 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC05A4B-465F-6ABF-BD49-C912883BAE09}"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140554C6-14B6-4176-9A7B-01193623FC35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4010,7 +4020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="3976688"/>
+          <a:off x="3238500" y="3975100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4035,10 +4045,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="290" name="図 289">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215A594-4FA4-209F-A97C-C84FB58F23D5}"/>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E96662D-23FB-42AF-AADF-15E00BD5DB68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,7 +4070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="928688"/>
+          <a:off x="3238500" y="927100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4085,10 +4095,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292" name="図 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943E3BA-13CF-C785-0B42-0A601BB1F01B}"/>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7A0A3F-65ED-4757-A1D1-3EFA2AFFE5E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="3595688"/>
+          <a:off x="2095500" y="3594100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4135,10 +4145,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="293" name="図 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F37DECC-41BD-439A-889F-CCF5933EF252}"/>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0A344B-00C7-4696-8157-14D2904A5179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="2071688"/>
+          <a:off x="5715000" y="2070100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4185,10 +4195,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="295" name="図 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93767BEA-85CE-A979-3BD7-6388B266D950}"/>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49402B57-F7E4-4E89-B300-07E2FCF82003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4210,7 +4220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="1309688"/>
+          <a:off x="4381500" y="1308100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4235,10 +4245,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="296" name="図 295">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B290D08D-2607-45C5-A7E9-AB8F2E9E33D6}"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F5E19C-F063-4A0B-97D0-48BC0655B09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,7 +4270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="2833688"/>
+          <a:off x="381000" y="2832100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4285,10 +4295,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="298" name="図 297">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86DE2B2-E5F8-2587-D8BE-9AA785265DC2}"/>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A1FA47-1360-4EC7-81B4-D44BA31D8F01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="2833688"/>
+          <a:off x="7048500" y="2832100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4335,10 +4345,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="300" name="図 299">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0808CB3-DE7A-12CB-1847-C9D63F45DB13}"/>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF16C805-1300-467F-8786-BADCE73142BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4360,7 +4370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2833688"/>
+          <a:off x="7620000" y="2832100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4385,10 +4395,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="302" name="図 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD47464-701C-1306-65BA-5DA55D499D0E}"/>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CD0E62-494B-4D82-9543-8D1E19B8F2CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4410,7 +4420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="3595688"/>
+          <a:off x="4381500" y="3594100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4435,10 +4445,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="303" name="図 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E16F19-471A-449D-978F-5B32A3AEF7EF}"/>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29951194-EAB0-4149-966C-1216BC5D0C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,7 +4470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="1690688"/>
+          <a:off x="5715000" y="1689100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4485,10 +4495,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="305" name="図 304">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A311EC74-01C1-2C0C-03E1-FAAFFE5D7F37}"/>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0E73AA-2F4D-4B97-816C-361EC9198E4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4520,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="1309688"/>
+          <a:off x="2095500" y="1308100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4535,10 +4545,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="306" name="図 305">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBC7044-48CB-4277-B195-B05829B245A2}"/>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A24B3A-9F4F-4657-8C23-73C2612B51DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4560,7 +4570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="3214688"/>
+          <a:off x="381000" y="3213100"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4585,10 +4595,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="308" name="図 307">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED9D74E-840D-B1F8-566E-163B7ADFFA04}"/>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41471672-7B1B-43D6-BB81-D7BF8E9C15FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4610,7 +4620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="3405188"/>
+          <a:off x="7048500" y="3403600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4635,10 +4645,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="310" name="図 309">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC869F45-7EDF-DAA9-061F-7F9D43F2387E}"/>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4DE46A-2554-4112-8730-6588C712CC95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="3405188"/>
+          <a:off x="7620000" y="3403600"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4674,6 +4684,3311 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="図 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A48A6AF-29D1-8008-CBE8-D256D42BC03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="図 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F38FB37-8BAB-4CD5-B849-0213431F82B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="図 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D39950-39B0-4C08-9E28-FFBD7ACFA1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="図 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9CA09B-C8B2-4419-B90D-90D7CF733397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="図 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7303B0-7A96-4B22-B33D-E34F49D113D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="図 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DEF918-ECD6-4622-AF55-4FF1A423C940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="図 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A535A-B04D-45C4-9A5E-E0DE7EAA9C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="図 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A2A06E-B0C3-4ECE-BC70-2DEC9A6A899C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="図 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F48915-0CA0-4C72-9A53-39A4DC5C84BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="図 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19C0082-F3B6-4F38-AD60-291B28F41C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="図 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F700B1-2D3B-5DF4-1AF2-775CB3FABB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="図 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BF3AFC-9692-4CB7-BF0E-8FD1E55AF3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="図 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE66EE82-2BAC-4FB1-9CC4-5550BC002550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="図 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0302D5-7E3A-464F-A54F-40ACD3A83A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="図 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7672FA-4933-4B34-B702-56A558423EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="図 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2849AF43-EA0D-4DE5-9535-FBA58ED6E739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="図 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C39FCEB-4FD1-458A-A05C-5BD4417A2240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="図 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEFF69B-19DB-44E8-A8ED-1433C6820CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="図 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946E7ADA-A289-4C0D-B716-BF1D0547DFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="図 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4F4E83-1E83-4B80-9607-B26E5397C01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="図 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC42C4BC-4380-F78D-7BAF-08D38DE2A842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="547688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="図 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660BA768-800B-D7EC-2292-ACB6E55D1697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="547688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="図 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C6B2F1-DE5C-C4E8-CA3B-005671D49740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="図 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391A60E5-0DB2-4F3E-B391-B669C6C91138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="図 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118EC5B9-5CE8-4443-B5C4-8139A0D6B442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3595688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="240" name="図 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA2F8B-CD50-A7C5-EFC1-031CE5958FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="図 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0380891-36F8-43CF-9570-87BA83FF193D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="図 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D99892-CCF0-4A29-BE9E-823F40EA79C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="244" name="図 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8CBBA6-DDC3-CFCE-88D2-F5B852154E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1119188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="図 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE95D055-91CA-1AB0-B9C5-E70A36BAA717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1119188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="図 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52289DA6-B136-B82D-8F7E-C83BF4AC7744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3975100"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="図 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E946B2-CFFF-4AFA-ABB1-7D1CB8D028BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="図 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2798E1E-5C76-47B4-90D1-F463FCF9337A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="図 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AFDF6F-308A-587D-7BD8-52F4A4F270C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="図 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3A4588-6261-4C4F-AB65-4C33EE980A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="254" name="図 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CE7918-C28E-4FB9-BE5D-E35B009B79CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="256" name="図 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F36692-2336-2737-B71A-922DFA82369D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="258" name="図 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACF1D81-1340-7F93-89E5-7E9741B545B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="図 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652A3053-96BA-B6F6-A843-72774FF4D81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2262188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="図 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89870F3-5666-B598-6B9A-DFD99BF36CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="2262188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="272" name="図 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593205F5-B6B8-25B6-801B-5EF5E3D31E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="273" name="図 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5DC195-CE74-4EC6-AF1C-C03A56683036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="274" name="図 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032B0C92-355E-4F28-84BA-A510CCEDBA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="276" name="図 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5875C92B-0055-0F97-2503-C9BB4E16E474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="277" name="図 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB5E2B5-DCE1-41BA-AFBA-AA2B04EAF98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="278" name="図 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7ADA7-7456-455E-834F-F90440F0F9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2071688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="280" name="図 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3178BA-CF39-1F75-F14D-082DF2D44982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="281" name="図 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D09C0C-91F7-466E-96F5-AE99CF21AAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="282" name="図 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A98649-117F-4FB9-A671-AD78068CA31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2452688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="284" name="図 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE04B97E-B43E-13A6-4AF1-240435FB66C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="図 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F5E8BD-5058-4894-937C-05FD20F6435B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="286" name="図 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0D3C75-7D3C-4294-A8DB-FC4106653AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2452688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="288" name="図 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC05A4B-465F-6ABF-BD49-C912883BAE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3976688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="290" name="図 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2215A594-4FA4-209F-A97C-C84FB58F23D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="928688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="292" name="図 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943E3BA-13CF-C785-0B42-0A601BB1F01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3595688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="293" name="図 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F37DECC-41BD-439A-889F-CCF5933EF252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2071688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="295" name="図 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93767BEA-85CE-A979-3BD7-6388B266D950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="296" name="図 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B290D08D-2607-45C5-A7E9-AB8F2E9E33D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="298" name="図 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86DE2B2-E5F8-2587-D8BE-9AA785265DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="300" name="図 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0808CB3-DE7A-12CB-1847-C9D63F45DB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="2833688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="302" name="図 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD47464-701C-1306-65BA-5DA55D499D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3595688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="303" name="図 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E16F19-471A-449D-978F-5B32A3AEF7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1690688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="305" name="図 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A311EC74-01C1-2C0C-03E1-FAAFFE5D7F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1309688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="306" name="図 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBC7044-48CB-4277-B195-B05829B245A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3214688"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="308" name="図 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED9D74E-840D-B1F8-566E-163B7ADFFA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="3405188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="310" name="図 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC869F45-7EDF-DAA9-061F-7F9D43F2387E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="3405188"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7662,11 +10977,1453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CBF819-390C-4A6B-8DA7-453B4A54F1F4}">
+  <dimension ref="A1:AJ104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="94" width="2.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123">
+        <v>512</v>
+      </c>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="125"/>
+      <c r="M2" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="31">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="119">
+        <v>90</v>
+      </c>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119">
+        <v>80</v>
+      </c>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119">
+        <v>70</v>
+      </c>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119">
+        <v>50</v>
+      </c>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119">
+        <v>40</v>
+      </c>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119">
+        <v>30</v>
+      </c>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83">
+        <v>10</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="108">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75">
+        <v>3</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="108">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83">
+        <v>2</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="108">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75">
+        <v>4</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83">
+        <v>1</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75">
+        <v>1</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="56">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83">
+        <v>1</v>
+      </c>
+      <c r="F18" s="84"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="50">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="54">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="50">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="50">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="54">
+        <v>10</v>
+      </c>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+    </row>
+    <row r="26" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+    </row>
+    <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="X27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA27" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+    </row>
+    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="AB22:AC23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="V20:W21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="Z20:AA21"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="V18:W19"/>
+    <mergeCell ref="X18:Y19"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="T18:U19"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="V16:W17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="Z16:AA17"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="AE14:AF15"/>
+    <mergeCell ref="AG14:AH15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AE12:AF13"/>
+    <mergeCell ref="AG12:AH13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="Z10:AA11"/>
+    <mergeCell ref="AB10:AC11"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="X10:Y11"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="AB8:AC9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="AB6:AC7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="V4:W5"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6507516-9E1B-45D7-89CB-128857834274}">
   <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9054,7 +13811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AH104"/>
   <sheetViews>
